--- a/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Base_Rate/TL_Transformed_Data_BaseRate.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Transformation_Layer/TL_Base_Rate/TL_Transformed_Data_BaseRate.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.04170</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2018-06-12</t>
+          <t>2019-09-18</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>001M</t>
+          <t>003M</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>AUD,EUR</t>
         </is>
       </c>
     </row>
